--- a/初始文档/通用配置注意事项参考.xlsx
+++ b/初始文档/通用配置注意事项参考.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="通用配置注意事项参考" sheetId="1" r:id="rId1"/>
@@ -541,12 +541,140 @@
         </r>
       </text>
     </comment>
+    <comment ref="E97" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+链接参数例子：
+/xxx.aspx|&amp;spsp=xxxxx|linkid
+链接的结果是："/xxx.aspx?linkid=150604000045&amp;spsp=xxxxx"
+自定义代码例子：
+formatter: function (cellvalue, options, rowObject) { return "&lt;img height='20' width='20' src='/" + cellvalue + "' /&gt;" }
+自定义代码另一个例子：
+formatter: function (cellvalue, options, rowObject) { return "&lt;a  href=\"demo_info.aspx?idforedit=" + $(rowObject).find('SID').text() + "\" target='_blank'&gt;&lt;button type='button' class='btn btn-minier btn-info'&gt;详情&lt;/button&gt;&lt;/a&gt; " }</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E98" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+链接参数例子：
+/xxx.aspx|&amp;spsp=xxxxx|linkid
+链接的结果是："/xxx.aspx?linkid=150604000045&amp;spsp=xxxxx"
+自定义代码例子：
+formatter: function (cellvalue, options, rowObject) { return "&lt;img height='20' width='20' src='/" + cellvalue + "' /&gt;" }
+自定义代码另一个例子：
+formatter: function (cellvalue, options, rowObject) { return "&lt;a  href=\"demo_info.aspx?idforedit=" + $(rowObject).find('SID').text() + "\" target='_blank'&gt;&lt;button type='button' class='btn btn-minier btn-info'&gt;详情&lt;/button&gt;&lt;/a&gt; " }</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E99" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+链接参数例子：
+/xxx.aspx|&amp;spsp=xxxxx|linkid
+链接的结果是："/xxx.aspx?linkid=150604000045&amp;spsp=xxxxx"
+自定义代码例子：
+formatter: function (cellvalue, options, rowObject) { return "&lt;img height='20' width='20' src='/" + cellvalue + "' /&gt;" }
+自定义代码另一个例子：
+formatter: function (cellvalue, options, rowObject) { return "&lt;a  href=\"demo_info.aspx?idforedit=" + $(rowObject).find('SID').text() + "\" target='_blank'&gt;&lt;button type='button' class='btn btn-minier btn-info'&gt;详情&lt;/button&gt;&lt;/a&gt; " }</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E100" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+链接参数例子：
+/xxx.aspx|&amp;spsp=xxxxx|linkid
+链接的结果是："/xxx.aspx?linkid=150604000045&amp;spsp=xxxxx"
+自定义代码例子：
+formatter: function (cellvalue, options, rowObject) { return "&lt;img height='20' width='20' src='/" + cellvalue + "' /&gt;" }
+自定义代码另一个例子：
+formatter: function (cellvalue, options, rowObject) { return "&lt;a  href=\"demo_info.aspx?idforedit=" + $(rowObject).find('SID').text() + "\" target='_blank'&gt;&lt;button type='button' class='btn btn-minier btn-info'&gt;详情&lt;/button&gt;&lt;/a&gt; " }</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="190">
   <si>
     <t>列名</t>
   </si>
@@ -734,206 +862,371 @@
     <t>DID_formatter</t>
   </si>
   <si>
+    <t>DID_formatter_CS</t>
+  </si>
+  <si>
+    <t>FUP_FormsMainInfo</t>
+  </si>
+  <si>
+    <t>FID</t>
+  </si>
+  <si>
+    <t>F_ok</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Ftype</t>
+  </si>
+  <si>
+    <t>Frun_add</t>
+  </si>
+  <si>
+    <t>Frun_edit</t>
+  </si>
+  <si>
+    <t>Frun_showinfo_foredit</t>
+  </si>
+  <si>
+    <t>FUP_FormsSubDialog</t>
+  </si>
+  <si>
+    <t>FUP_FormsSubInfo</t>
+  </si>
+  <si>
+    <t>FS_FID</t>
+  </si>
+  <si>
+    <t>FS_title</t>
+  </si>
+  <si>
+    <t>FS_minlength</t>
+  </si>
+  <si>
+    <t>对于文本框来说是允许的字符数下限。对于数字来说是允许的最小值</t>
+  </si>
+  <si>
+    <t>FS_maxlength</t>
+  </si>
+  <si>
+    <t>((500))</t>
+  </si>
+  <si>
+    <t>对于文本框来说是允许的字符数上限。对于数字来说是允许的最大值</t>
+  </si>
+  <si>
+    <t>FS_tip_n</t>
+  </si>
+  <si>
+    <t>(N'请输入')</t>
+  </si>
+  <si>
+    <t>内部灰色提示。 只对文本输入框有效</t>
+  </si>
+  <si>
+    <t>FS_tip_w</t>
+  </si>
+  <si>
+    <t>(N'默认说明')</t>
+  </si>
+  <si>
+    <t>外部黑色悬浮提示。 只对文本框有效。数字或其他类型控件无效。</t>
+  </si>
+  <si>
+    <t>FS_passnull</t>
+  </si>
+  <si>
+    <t>FS_nulltip</t>
+  </si>
+  <si>
+    <t>FS_index</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>优先级索引，越小的值，越往前排，允许小数值</t>
+  </si>
+  <si>
+    <t>FS_SPPZ_list_static</t>
+  </si>
+  <si>
+    <t>下拉框的静态内容，用逗号隔开。 内部值和显示值用|隔开。</t>
+  </si>
+  <si>
+    <t>FS_SPPZ_mask</t>
+  </si>
+  <si>
+    <t>简单掩码控制。例如999-9999。留空就是不控制格式。(jquery maskedinput)</t>
+  </si>
+  <si>
+    <t>FS_SPPZ_readonly</t>
+  </si>
+  <si>
+    <t>FS_D_haveD</t>
+  </si>
+  <si>
+    <t>FS_D_yinruzhi</t>
+  </si>
+  <si>
+    <t>1是生效，0是暂时无效未启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否显示新增按钮。 0是不显示。 1是显示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增数据按钮的链接的url地址。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否自适应列宽。 false代表依据字段宽度设定展开，true代表不出现滚动条并且字段的宽度设定的含义变成了比例权重。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复合表头的设置js代码，具体规则详见jqgrid文档(有错位bug，还没处理好)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要获取的字段，全取值就是星号。 不管取出几个字段， 字段配置表里面配置的显示列将从这里取值，因此必须确保字段配置表里每个字段是这里设置字段的子集。 同时确保字段名跟数据库里一致。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">数据来源的表名或者视图名称，不用视图直接写链表代码也行。  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取数据的默认排序规则代码。 排序不能留空，必须有个默认排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键或联合主键。这个必须存在，有时候select出来的数据可能没有主键，这时必须拼接一个联合主键。否则分页混乱。本来就存在主键的，就写上主键字段名就行了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页每页数量的配置值，可以有多个。第一个是默认的，其他的是供用户可选的。用逗号分开。 至少要设置一个。不能留空。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否启用快捷查询配置。如果开启，列表顶部最多三个快速查询。 0是不开启，1是开启。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快捷搜索控件类型。 目前只支持 “输入框”，“时间段”。 留空就是不显示这个快捷查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表基本配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表显示字段的配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表基本配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUP_FormsList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应列表列表基本配置表的主键。 就是FUP_FormsList表的主键。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列默认排序。这个影响列显示的顺序，数值越小越往前排。允许小数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false代表不隐藏，true代表是隐藏列。 如果是false，则列的数据会被取到前段界面上，虽然用户看不到，但js程序可以取值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各列的显示名称。 可以是中文，但同一个列表内不能有重名，并且不能带有逗号冒号。也不要用奇怪的字符。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认的列显示宽度，自适应模式下变为比例权重。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示是否允许点击排序。 true为可以排序，false为不能排序。 不是所有列都适合排序，如果DID_formatter是“自定义”，就一定要搞成不允许排序。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须对应数据库字段名一致，必须是英文，别有奇怪字符。如果DID_formatter是“自定义”，就不用非得一致了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否允许拖动列宽改变宽度，false为允许拖动，ture为固定不变不能拖动宽度。  比如时间，自定义列等具备固定长度数据的类型，建议设置为不允许拖动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DID_formatter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据格式的特殊参数， 如果是链接就代表链接参数，如果是自定义就填写具体jqgrid支持的代码，可以实现其他复杂的功能。 如果DID_formatter不是链接也不是自定义，此列没用,可以留空。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单中文业务名称，会显示在界面上。因此必须设置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">数据显示格式。 包括 字符串、链接、整数、小数、日期时间、仅日期、自定义 。  必须使用规定的这几个字符串。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通一列 或 普通两列。目前只支持一列，两列模式界面太乱，适用场景很小，以后再说。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>(N'字符串')</t>
-  </si>
-  <si>
-    <t>DID_formatter_CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(N'普通一列')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑前获取原始数据接口。 需要遵循固定的代码规范。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改按钮接口。用于处理表单提交后的添加处理操作。需要遵循固定的代码规范。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加按钮接口。用于处理表单提交后的添加处理操作。 需要遵循固定的代码规范。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">获取数据接口。需要遵循固定的代码规范。 大多数情况使用默认值"获取通用数据列表分页数据"即可。很特殊的处理，才用其他自定义接口。   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除数据接口。需要遵循固定的代码规范。  大多数功能原则上不提供删除功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单基本设置主表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单基本设置主表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FUP_FormsMainInfo</t>
-  </si>
-  <si>
-    <t>FID</t>
-  </si>
-  <si>
-    <t>F_ok</t>
-  </si>
-  <si>
-    <t>Fname</t>
-  </si>
-  <si>
-    <t>Ftype</t>
-  </si>
-  <si>
-    <t>Frun_add</t>
-  </si>
-  <si>
-    <t>Frun_edit</t>
-  </si>
-  <si>
-    <t>Frun_showinfo_foredit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隶属的表单基本设置主表主键。也就是FUP_FormsMainInfo的主键。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单字段弹窗内字段配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单字段配置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单字段配置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUP_FormsSubInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应表单字段配置表的主键，也就是FUP_FormsSubInfo的主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列默认排序。这个影响列显示的顺序，数值越小越往前排。允许小数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false代表不隐藏，true代表是隐藏列。 如果是false，则列的数据会被取到前段界面上，虽然用户看不到，但js程序可以取值。比如弹窗引用的字段不一定显示在界面上，但其实可以引用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示是否允许点击排序。 true为可以排序，false为不能排序。 不是所有列都适合排序，如果DID_formatter是“自定义”，就一定要搞成不允许排序。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否允许拖动列宽改变宽度，false为允许拖动，ture为固定不变不能拖动宽度。  比如时间，自定义列等具备固定长度数据的类型，建议设置为不允许拖动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false为不冻结，true为冻结列。 冻结列不知道为啥不能用，有bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false为不冻结，true为冻结列。冻结列不知道为啥不能用，有bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框、密码框、下拉框、单选框、普通多选框、下拉多选框、省市区联动、整数、两位小数、日期框、日期区间框、大文本框、分组线、富文本框、上传组件、子表数据 。 必须使用这些规定的字符串。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般情况跟数据库表字段相同即可，会作用控件名使用，所以只能使用英文或下划线。  不一定非要跟数据库字段相同，接口里面通过这个名字获取提交上来的表单内容。注意某些特殊控件会自动把名称变形。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示在前面的文字标题，不要加冒号。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0代表非必填项、1代表必填项。影响前台js验证。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填项目时，没有填写项目的错误提示文字。若留空会按标题自动使用默认文字。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若要只读。 设置成readonly。  若要允许编辑留空即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0代表没有弹窗按钮，1代表附加弹窗选择按钮。弹窗按钮只对文本输入框有效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FUP_FormsSubDialog</t>
-  </si>
-  <si>
-    <t>FUP_FormsSubInfo</t>
-  </si>
-  <si>
-    <t>FS_FID</t>
-  </si>
-  <si>
-    <t>FS_title</t>
-  </si>
-  <si>
-    <t>FS_minlength</t>
-  </si>
-  <si>
-    <t>对于文本框来说是允许的字符数下限。对于数字来说是允许的最小值</t>
-  </si>
-  <si>
-    <t>FS_maxlength</t>
-  </si>
-  <si>
-    <t>((500))</t>
-  </si>
-  <si>
-    <t>对于文本框来说是允许的字符数上限。对于数字来说是允许的最大值</t>
-  </si>
-  <si>
-    <t>FS_tip_n</t>
-  </si>
-  <si>
-    <t>(N'请输入')</t>
-  </si>
-  <si>
-    <t>内部灰色提示。 只对文本输入框有效</t>
-  </si>
-  <si>
-    <t>FS_tip_w</t>
-  </si>
-  <si>
-    <t>(N'默认说明')</t>
-  </si>
-  <si>
-    <t>外部黑色悬浮提示。 只对文本框有效。数字或其他类型控件无效。</t>
-  </si>
-  <si>
-    <t>FS_passnull</t>
-  </si>
-  <si>
-    <t>FS_nulltip</t>
-  </si>
-  <si>
-    <t>FS_index</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>优先级索引，越小的值，越往前排，允许小数值</t>
-  </si>
-  <si>
-    <t>FS_SPPZ_list_static</t>
-  </si>
-  <si>
-    <t>下拉框的静态内容，用逗号隔开。 内部值和显示值用|隔开。</t>
-  </si>
-  <si>
-    <t>FS_SPPZ_mask</t>
-  </si>
-  <si>
-    <t>简单掩码控制。例如999-9999。留空就是不控制格式。(jquery maskedinput)</t>
-  </si>
-  <si>
-    <t>FS_SPPZ_readonly</t>
-  </si>
-  <si>
-    <t>FS_D_haveD</t>
-  </si>
-  <si>
-    <t>FS_D_yinruzhi</t>
-  </si>
-  <si>
-    <t>1是生效，0是暂时无效未启用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否显示新增按钮。 0是不显示。 1是显示。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增数据按钮的链接的url地址。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否自适应列宽。 false代表依据字段宽度设定展开，true代表不出现滚动条并且字段的宽度设定的含义变成了比例权重。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复合表头的设置js代码，具体规则详见jqgrid文档(有错位bug，还没处理好)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要获取的字段，全取值就是星号。 不管取出几个字段， 字段配置表里面配置的显示列将从这里取值，因此必须确保字段配置表里每个字段是这里设置字段的子集。 同时确保字段名跟数据库里一致。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">数据来源的表名或者视图名称，不用视图直接写链表代码也行。  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取数据的默认条件。附加一些用户无法控制的固定条件。 没有固定条件就留空。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取数据的默认排序规则代码。 排序不能留空，必须有个默认排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键或联合主键。这个必须存在，有时候select出来的数据可能没有主键，这时必须拼接一个联合主键。否则分页混乱。本来就存在主键的，就写上主键字段名就行了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分页每页数量的配置值，可以有多个。第一个是默认的，其他的是供用户可选的。用逗号分开。 至少要设置一个。不能留空。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否启用快捷查询配置。如果开启，列表顶部最多三个快速查询。 0是不开启，1是开启。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快捷搜索控件类型。 目前只支持 “输入框”，“时间段”。 留空就是不显示这个快捷查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表基本配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表显示字段的配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表基本配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUP_FormsList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应列表列表基本配置表的主键。 就是FUP_FormsList表的主键。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列默认排序。这个影响列显示的顺序，数值越小越往前排。允许小数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false代表不隐藏，true代表是隐藏列。 如果是false，则列的数据会被取到前段界面上，虽然用户看不到，但js程序可以取值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各列的显示名称。 可以是中文，但同一个列表内不能有重名，并且不能带有逗号冒号。也不要用奇怪的字符。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认的列显示宽度，自适应模式下变为比例权重。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表示是否允许点击排序。 true为可以排序，false为不能排序。 不是所有列都适合排序，如果DID_formatter是“自定义”，就一定要搞成不允许排序。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DID_showname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引入值和显示值的配置，冒号前是引入值，冒号后是引入显示值。多个值用逗号分开。 这里的配置必须使用FUP_FormsSubDialog表里面的DID_showname。  引入值将被带入输入框，显示值显示在输入框下方。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否自适应列宽。 false代表依据字段宽度设定展开，true代表不出现滚动条并且字段的宽度设定的含义变成了比例权重。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -941,31 +1234,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否允许拖动列宽改变宽度，false为允许拖动，ture为固定不变不能拖动宽度。  比如时间，自定义列等具备固定长度数据的类型，建议设置为不允许拖动。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DID_formatter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据格式的特殊参数， 如果是链接就代表链接参数，如果是自定义就填写具体jqgrid支持的代码，可以实现其他复杂的功能。 如果DID_formatter不是链接也不是自定义，此列没用,可以留空。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表单中文业务名称，会显示在界面上。因此必须设置。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">数据显示格式。 包括 字符串、链接、整数、小数、日期时间、仅日期、自定义 。  必须使用规定的这几个字符串。 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通一列 或 普通两列。目前只支持一列，两列模式界面太乱，适用场景很小，以后再说。</t>
+    <t>普通，特殊。 暂时只支持普通，这个是备用的字段。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表的名字，实际上界面不显示。用于方便查看的。通常可以使用菜单的名字，以方便查阅。而且不要有重复。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(N'获取通用数据列表分页数据')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否显示删除按钮。 false为不显示，true为显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否允许显示导出功能。0为不允许导出,1为允许导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(N'框架免代理通用接口删')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(N'框架免代理通用接口增')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(N'框架免代理通用接口改')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(N'框架免代理通用接口改获')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取数据的默认条件。附加一些用户无法控制的固定条件。 没有固定条件就留空。 特殊通配符{idforedit}，可以自动获取当前页面url中的idforedit参数值。也就是目前正在编辑的表id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取数据的默认条件。附加一些用户无法控制的固定条件。 没有固定条件就留空。特殊通配符{idforedit}，可以自动获取当前页面url中的idforedit参数值。也就是目前正在编辑的表id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FD_D_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUP_FormsSubDialog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(N'false')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(N'true')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑模式专用。是否允许编辑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑模式专用。是否必填项。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑模式专用。特殊设置，比如下拉框的选项等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DID_edit_editable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -973,183 +1314,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(N'普通一列')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑前获取原始数据接口。 需要遵循固定的代码规范。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改按钮接口。用于处理表单提交后的添加处理操作。需要遵循固定的代码规范。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加按钮接口。用于处理表单提交后的添加处理操作。 需要遵循固定的代码规范。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">获取数据接口。需要遵循固定的代码规范。 大多数情况使用默认值"获取通用数据列表分页数据"即可。很特殊的处理，才用其他自定义接口。   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除数据接口。需要遵循固定的代码规范。  大多数功能原则上不提供删除功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表单基本设置主表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表单基本设置主表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUP_FormsMainInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隶属的表单基本设置主表主键。也就是FUP_FormsMainInfo的主键。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表单字段弹窗内字段配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表单字段配置表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表单字段配置表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUP_FormsSubInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应表单字段配置表的主键，也就是FUP_FormsSubInfo的主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列默认排序。这个影响列显示的顺序，数值越小越往前排。允许小数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false代表不隐藏，true代表是隐藏列。 如果是false，则列的数据会被取到前段界面上，虽然用户看不到，但js程序可以取值。比如弹窗引用的字段不一定显示在界面上，但其实可以引用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表示是否允许点击排序。 true为可以排序，false为不能排序。 不是所有列都适合排序，如果DID_formatter是“自定义”，就一定要搞成不允许排序。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否允许拖动列宽改变宽度，false为允许拖动，ture为固定不变不能拖动宽度。  比如时间，自定义列等具备固定长度数据的类型，建议设置为不允许拖动。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false为不冻结，true为冻结列。 冻结列不知道为啥不能用，有bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false为不冻结，true为冻结列。冻结列不知道为啥不能用，有bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框、密码框、下拉框、单选框、普通多选框、下拉多选框、省市区联动、整数、两位小数、日期框、日期区间框、大文本框、分组线、富文本框、上传组件、子表数据 。 必须使用这些规定的字符串。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般情况跟数据库表字段相同即可，会作用控件名使用，所以只能使用英文或下划线。  不一定非要跟数据库字段相同，接口里面通过这个名字获取提交上来的表单内容。注意某些特殊控件会自动把名称变形。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示在前面的文字标题，不要加冒号。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0代表非必填项、1代表必填项。影响前台js验证。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必填项目时，没有填写项目的错误提示文字。若留空会按标题自动使用默认文字。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若要只读。 设置成readonly。  若要允许编辑留空即可。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0代表没有弹窗按钮，1代表附加弹窗选择按钮。弹窗按钮只对文本输入框有效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUP_FormsSubDialog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DID_showname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引入值和显示值的配置，冒号前是引入值，冒号后是引入显示值。多个值用逗号分开。 这里的配置必须使用FUP_FormsSubDialog表里面的DID_showname。  引入值将被带入输入框，显示值显示在输入框下方。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否自适应列宽。 false代表依据字段宽度设定展开，true代表不出现滚动条并且字段的宽度设定的含义变成了比例权重。。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必须对应数据库字段名一致，必须是英文，别有奇怪字符。如果DID_formatter是“自定义”，就不用非得一致了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">数据显示格式。 包括 字符串、链接、整数、小数、日期时间、仅日期、自定义 。  必须使用规定的这几个字符串。 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通，特殊。 暂时只支持普通，这个是备用的字段。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表的名字，实际上界面不显示。用于方便查看的。通常可以使用菜单的名字，以方便查阅。而且不要有重复。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(N'获取通用数据列表分页数据')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否显示删除按钮。 false为不显示，true为显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否允许显示导出功能。0为不允许导出,1为允许导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(N'框架免代理通用接口删')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(N'框架免代理通用接口增')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(N'框架免代理通用接口改')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(N'框架免代理通用接口改获')</t>
+    <t>(N'false')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(N'文本框')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑模式专用。指定编辑控件类型，只对字符串类型有效。包括：文本框、下拉框、弹窗选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DID_edit_ftype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DID_edit_spset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DID_edit_required</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1584,24 +1769,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="23.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="66.5" customWidth="1"/>
+    <col min="4" max="4" width="15.08984375" customWidth="1"/>
+    <col min="5" max="5" width="66.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1619,7 +1804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1634,10 +1819,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1651,13 +1836,13 @@
         <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1669,13 +1854,13 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1687,13 +1872,13 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1704,16 +1889,16 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1724,16 +1909,16 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1747,13 +1932,13 @@
         <v>18</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -1767,13 +1952,13 @@
         <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1787,13 +1972,13 @@
         <v>11</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -1805,13 +1990,13 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1825,13 +2010,13 @@
         <v>23</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -1843,13 +2028,13 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1861,13 +2046,13 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1879,13 +2064,13 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -1897,13 +2082,13 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -1915,31 +2100,31 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -1953,13 +2138,13 @@
         <v>31</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -1973,13 +2158,13 @@
         <v>11</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1994,10 +2179,10 @@
         <v>34</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
@@ -2012,10 +2197,10 @@
         <v>36</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
@@ -2029,13 +2214,13 @@
         <v>38</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
@@ -2050,10 +2235,10 @@
         <v>34</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
@@ -2068,10 +2253,10 @@
         <v>36</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -2088,10 +2273,10 @@
         <v>42</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
@@ -2106,10 +2291,10 @@
         <v>34</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>5</v>
       </c>
@@ -2124,10 +2309,10 @@
         <v>36</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2144,10 +2329,10 @@
         <v>42</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2155,7 +2340,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2163,7 +2348,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>46</v>
       </c>
@@ -2178,10 +2363,10 @@
         <v>8</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>46</v>
       </c>
@@ -2193,13 +2378,13 @@
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>46</v>
       </c>
@@ -2216,10 +2401,10 @@
         <v>12</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>46</v>
       </c>
@@ -2233,13 +2418,13 @@
         <v>11</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>46</v>
       </c>
@@ -2253,13 +2438,13 @@
         <v>18</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>46</v>
       </c>
@@ -2271,13 +2456,13 @@
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -2289,13 +2474,13 @@
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>46</v>
       </c>
@@ -2309,13 +2494,13 @@
         <v>57</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>46</v>
       </c>
@@ -2329,13 +2514,13 @@
         <v>23</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>46</v>
       </c>
@@ -2349,13 +2534,13 @@
         <v>18</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
@@ -2369,51 +2554,51 @@
         <v>18</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2421,7 +2606,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2429,30 +2614,30 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>10</v>
@@ -2464,110 +2649,110 @@
         <v>12</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B50" s="3" t="s">
+      <c r="F50" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="3" t="s">
+      <c r="C51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="3" t="s">
+      <c r="F52" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="C53" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>6</v>
@@ -2577,33 +2762,33 @@
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>9</v>
@@ -2618,12 +2803,12 @@
         <v>12</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>13</v>
@@ -2633,15 +2818,15 @@
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>14</v>
@@ -2651,36 +2836,36 @@
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>10</v>
@@ -2689,78 +2874,78 @@
         <v>11</v>
       </c>
       <c r="E62" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A63" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D63" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="F63" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A64" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B64" s="3" t="s">
+      <c r="C64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="3" t="s">
+      <c r="E64" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="F64" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A65" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B65" s="3" t="s">
+      <c r="C65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="F65" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A66" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>10</v>
@@ -2769,108 +2954,108 @@
         <v>11</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A69" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A70" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A71" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>10</v>
@@ -2879,33 +3064,33 @@
         <v>11</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>22</v>
@@ -2917,15 +3102,15 @@
         <v>23</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>24</v>
@@ -2935,15 +3120,15 @@
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>25</v>
@@ -2953,15 +3138,15 @@
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>26</v>
@@ -2971,15 +3156,15 @@
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>27</v>
@@ -2989,15 +3174,15 @@
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>28</v>
@@ -3007,15 +3192,15 @@
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>29</v>
@@ -3025,15 +3210,15 @@
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>30</v>
@@ -3045,15 +3230,15 @@
         <v>31</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>47</v>
@@ -3066,12 +3251,12 @@
         <v>8</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>48</v>
@@ -3081,15 +3266,15 @@
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>49</v>
@@ -3104,12 +3289,12 @@
         <v>12</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>51</v>
@@ -3121,15 +3306,15 @@
         <v>11</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>53</v>
@@ -3141,33 +3326,33 @@
         <v>18</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>55</v>
@@ -3177,15 +3362,15 @@
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>56</v>
@@ -3197,15 +3382,15 @@
         <v>57</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>58</v>
@@ -3214,18 +3399,18 @@
         <v>7</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>23</v>
+        <v>178</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>59</v>
@@ -3237,15 +3422,15 @@
         <v>18</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>60</v>
@@ -3254,18 +3439,18 @@
         <v>7</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>61</v>
@@ -3274,37 +3459,115 @@
         <v>7</v>
       </c>
       <c r="D95" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A96" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/初始文档/通用配置注意事项参考.xlsx
+++ b/初始文档/通用配置注意事项参考.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="通用配置注意事项参考" sheetId="1" r:id="rId1"/>
@@ -674,7 +674,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="190">
   <si>
     <t>列名</t>
   </si>
@@ -952,9 +952,6 @@
     <t>FS_SPPZ_list_static</t>
   </si>
   <si>
-    <t>下拉框的静态内容，用逗号隔开。 内部值和显示值用|隔开。</t>
-  </si>
-  <si>
     <t>FS_SPPZ_mask</t>
   </si>
   <si>
@@ -1302,10 +1299,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>编辑模式专用。特殊设置，比如下拉框的选项等。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DID_edit_editable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1322,10 +1315,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>编辑模式专用。指定编辑控件类型，只对字符串类型有效。包括：文本框、下拉框、弹窗选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DID_edit_ftype</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1335,6 +1324,18 @@
   </si>
   <si>
     <t>DID_edit_required</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑模式专用。指定编辑控件类型，只对字符串类型有效。包括：文本框、下拉框、 弹窗选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑模式专用。特殊设置，比如下拉框的选项等。  以[sql]或[sqlone]开头可以动态取数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉框的静态内容，用逗号隔开。 内部值和显示值用|隔开。  以[sql]或[sqlone]开头可以动态取数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1771,22 +1772,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" customWidth="1"/>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="15.08984375" customWidth="1"/>
-    <col min="5" max="5" width="66.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="66.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1804,7 +1805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1819,10 +1820,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1836,13 +1837,13 @@
         <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1854,13 +1855,13 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1872,13 +1873,13 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1889,16 +1890,16 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1909,16 +1910,16 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1932,13 +1933,13 @@
         <v>18</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -1952,13 +1953,13 @@
         <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1972,13 +1973,13 @@
         <v>11</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -1990,13 +1991,13 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -2010,13 +2011,13 @@
         <v>23</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -2028,13 +2029,13 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -2046,13 +2047,13 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
@@ -2064,13 +2065,13 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -2082,13 +2083,13 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -2100,31 +2101,31 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -2138,13 +2139,13 @@
         <v>31</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -2158,13 +2159,13 @@
         <v>11</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
@@ -2179,10 +2180,10 @@
         <v>34</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
@@ -2197,10 +2198,10 @@
         <v>36</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
@@ -2214,13 +2215,13 @@
         <v>38</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
@@ -2235,10 +2236,10 @@
         <v>34</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
@@ -2253,10 +2254,10 @@
         <v>36</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -2273,10 +2274,10 @@
         <v>42</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
@@ -2291,10 +2292,10 @@
         <v>34</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>5</v>
       </c>
@@ -2309,10 +2310,10 @@
         <v>36</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2329,10 +2330,10 @@
         <v>42</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2340,7 +2341,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2348,7 +2349,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>46</v>
       </c>
@@ -2363,10 +2364,10 @@
         <v>8</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>46</v>
       </c>
@@ -2378,13 +2379,13 @@
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>46</v>
       </c>
@@ -2401,10 +2402,10 @@
         <v>12</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>46</v>
       </c>
@@ -2418,13 +2419,13 @@
         <v>11</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>46</v>
       </c>
@@ -2438,13 +2439,13 @@
         <v>18</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>46</v>
       </c>
@@ -2456,13 +2457,13 @@
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -2474,13 +2475,13 @@
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>46</v>
       </c>
@@ -2494,13 +2495,13 @@
         <v>57</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>46</v>
       </c>
@@ -2514,13 +2515,13 @@
         <v>23</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>46</v>
       </c>
@@ -2534,13 +2535,13 @@
         <v>18</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
@@ -2554,33 +2555,33 @@
         <v>18</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>46</v>
       </c>
@@ -2592,13 +2593,13 @@
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2606,7 +2607,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2614,7 +2615,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>63</v>
       </c>
@@ -2626,13 +2627,13 @@
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>63</v>
       </c>
@@ -2649,10 +2650,10 @@
         <v>12</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>63</v>
       </c>
@@ -2664,15 +2665,15 @@
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>67</v>
@@ -2681,16 +2682,16 @@
         <v>7</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>63</v>
       </c>
@@ -2701,16 +2702,16 @@
         <v>7</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
         <v>63</v>
       </c>
@@ -2721,16 +2722,16 @@
         <v>7</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
         <v>63</v>
       </c>
@@ -2741,18 +2742,18 @@
         <v>7</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>6</v>
@@ -2762,13 +2763,13 @@
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>72</v>
       </c>
@@ -2780,13 +2781,13 @@
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>72</v>
       </c>
@@ -2803,10 +2804,10 @@
         <v>12</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
         <v>72</v>
       </c>
@@ -2818,13 +2819,13 @@
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
         <v>72</v>
       </c>
@@ -2836,13 +2837,13 @@
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>72</v>
       </c>
@@ -2854,13 +2855,13 @@
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>72</v>
       </c>
@@ -2877,10 +2878,10 @@
         <v>76</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>72</v>
       </c>
@@ -2897,10 +2898,10 @@
         <v>79</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
         <v>72</v>
       </c>
@@ -2917,10 +2918,10 @@
         <v>82</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
         <v>72</v>
       </c>
@@ -2937,10 +2938,10 @@
         <v>85</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
         <v>72</v>
       </c>
@@ -2954,13 +2955,13 @@
         <v>11</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
         <v>72</v>
       </c>
@@ -2972,13 +2973,13 @@
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>72</v>
       </c>
@@ -2993,10 +2994,10 @@
         <v>90</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
         <v>72</v>
       </c>
@@ -3008,54 +3009,54 @@
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>10</v>
@@ -3064,31 +3065,31 @@
         <v>11</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>72</v>
       </c>
@@ -3102,13 +3103,13 @@
         <v>23</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
         <v>72</v>
       </c>
@@ -3120,13 +3121,13 @@
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
         <v>72</v>
       </c>
@@ -3138,13 +3139,13 @@
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
         <v>72</v>
       </c>
@@ -3156,13 +3157,13 @@
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
         <v>72</v>
       </c>
@@ -3174,13 +3175,13 @@
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
         <v>72</v>
       </c>
@@ -3192,13 +3193,13 @@
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
         <v>72</v>
       </c>
@@ -3210,13 +3211,13 @@
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
         <v>72</v>
       </c>
@@ -3230,13 +3231,13 @@
         <v>31</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
         <v>71</v>
       </c>
@@ -3251,10 +3252,10 @@
         <v>8</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A85" s="3" t="s">
         <v>71</v>
       </c>
@@ -3266,13 +3267,13 @@
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
         <v>71</v>
       </c>
@@ -3289,10 +3290,10 @@
         <v>12</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A87" s="3" t="s">
         <v>71</v>
       </c>
@@ -3306,15 +3307,15 @@
         <v>11</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A88" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>53</v>
@@ -3326,31 +3327,31 @@
         <v>18</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A89" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A90" s="3" t="s">
         <v>71</v>
       </c>
@@ -3362,13 +3363,13 @@
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A91" s="3" t="s">
         <v>71</v>
       </c>
@@ -3382,13 +3383,13 @@
         <v>57</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
         <v>71</v>
       </c>
@@ -3399,16 +3400,16 @@
         <v>7</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A93" s="3" t="s">
         <v>71</v>
       </c>
@@ -3422,13 +3423,13 @@
         <v>18</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A94" s="3" t="s">
         <v>71</v>
       </c>
@@ -3439,16 +3440,16 @@
         <v>7</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A95" s="3" t="s">
         <v>71</v>
       </c>
@@ -3459,18 +3460,18 @@
         <v>7</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A96" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>62</v>
@@ -3480,88 +3481,88 @@
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A97" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B97" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A98" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E97" s="3" t="s">
+      <c r="E98" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F97" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D98" s="3" t="s">
+      <c r="F98" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A99" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B99" s="3" t="s">
+      <c r="C99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E99" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C99" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D99" s="3" t="s">
+      <c r="F99" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A100" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
